--- a/SPPSApi/Doc/Template/FS1207_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1207_Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>对象月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,23 +525,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.19921875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.59765625" style="3" customWidth="1"/>
-    <col min="9" max="37" width="6.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.09765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.59765625" style="3" customWidth="1"/>
+    <col min="10" max="38" width="6.59765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -545,108 +550,111 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS1207_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1207_Export.xlsx
@@ -528,12 +528,13 @@
   <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.59765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.09765625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.59765625" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.19921875" style="3" customWidth="1"/>

--- a/SPPSApi/Doc/Template/FS1207_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1207_Export.xlsx
@@ -135,7 +135,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工厂</t>
+    <t>工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:AL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
